--- a/conf/tableraces.xlsx
+++ b/conf/tableraces.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-02\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-02\Desktop\Projet\jdr2d\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AB299D1-6012-4C88-89AD-0156ADE7FA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7989A5FD-9C5B-40D3-B2C0-86B59B54861D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C4FBFA4-588B-41CA-8420-635D843FA3FC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>id_race</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  changé</t>
   </si>
 </sst>
 </file>
@@ -122,15 +125,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -655,7 +655,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,20 +664,20 @@
     <col min="3" max="3" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -763,6 +763,9 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/conf/tableraces.xlsx
+++ b/conf/tableraces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-02\Desktop\Projet\jdr2d\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7989A5FD-9C5B-40D3-B2C0-86B59B54861D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6608E2DB-2718-4433-9D09-52D044297AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C4FBFA4-588B-41CA-8420-635D843FA3FC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>id_race</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  changé</t>
   </si>
 </sst>
 </file>
@@ -655,7 +652,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,9 +761,6 @@
       <c r="A8">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
